--- a/app/src/main/assets/quiz_level2.xlsx
+++ b/app/src/main/assets/quiz_level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\MZ_FocusNews\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB36D372-13AF-46D5-A55F-74E756FC2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49781647-0FA7-4895-BDA8-681E617995E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,10 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>순서가 있는 리스트에서 데이터의 삽입(Push), 삭제(Pop)가 한 쪽 끝에서 일어나며 LIFO(Last-In-First-Out)의 특징을 가지는 자료구조는?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Stack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,6 +595,10 @@
   </si>
   <si>
     <t>Queue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서가 있는 리스트에서 데이터의 삽입(Push), 삭제(Pop)가 한 쪽 끝에서 일어나며 LIFO의 특징을 가지는 자료구조는?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1132,8 +1132,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
